--- a/data/trans_dic/IP38E_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP38E_2023-Estudios-trans_dic.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,57</t>
+          <t>0,0; 70,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,52; 95,52</t>
+          <t>63,56; 94,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,78; 90,44</t>
+          <t>58,12; 91,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,99; 90,0</t>
+          <t>67,99; 90,83</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,53; 90,89</t>
+          <t>61,79; 90,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,91; 91,43</t>
+          <t>66,08; 92,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,77; 88,94</t>
+          <t>69,03; 88,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP38E_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP38E_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>76,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>71,41%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,54</t>
+          <t>55,66; 90,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>49,46; 81,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,1</t>
+          <t>57,43; 81,75</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>88,46%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,56; 94,59</t>
+          <t>76,43; 89,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,12; 91,22</t>
+          <t>87,34; 95,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,99; 90,83</t>
+          <t>84,82; 91,42</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,77%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>89,51; 99,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>93,57; 99,43</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>88,1%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,79; 90,98</t>
+          <t>80,27; 90,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,08; 92,57</t>
+          <t>85,12; 92,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,03; 88,59</t>
+          <t>85,02; 91,0</t>
         </is>
       </c>
     </row>
